--- a/FMEA_Operations.xlsx
+++ b/FMEA_Operations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anc/WorkDocs/Thought Leading/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anc/WorkDocs/Thought Leading/Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE45AD8-BBBA-8D48-821D-E84CDC2F9D1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23911CBB-117D-954F-8404-4CD32968C38A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2060" yWindow="1540" windowWidth="33600" windowHeight="19520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FMEA" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,15 @@
     <sheet name="Probability" sheetId="4" r:id="rId3"/>
     <sheet name="Detectability" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">FMEA!$A$1:$P$21</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="130">
   <si>
     <t>System</t>
   </si>
@@ -297,9 +300,6 @@
     <t>&lt;1 in 1,500,000</t>
   </si>
   <si>
-    <t>Request delivered, 404 not found returned</t>
-  </si>
-  <si>
     <t>Detection</t>
   </si>
   <si>
@@ -360,12 +360,6 @@
     <t>Authentication</t>
   </si>
   <si>
-    <t>Client can't authenticate</t>
-  </si>
-  <si>
-    <t>Can't connect application</t>
-  </si>
-  <si>
     <t>Certificate timeout, version mismatch, account not setup, credential changed</t>
   </si>
   <si>
@@ -375,9 +369,6 @@
     <t>Slow or unreliable authentication</t>
   </si>
   <si>
-    <t>Slow start for application</t>
-  </si>
-  <si>
     <t>Auth service overloaded, high error and retry rate</t>
   </si>
   <si>
@@ -412,6 +403,21 @@
   </si>
   <si>
     <t>Operations</t>
+  </si>
+  <si>
+    <t>Montoring agent can't authenticate</t>
+  </si>
+  <si>
+    <t>Can't monitor application</t>
+  </si>
+  <si>
+    <t>Montoring tool end user operator can't authenticate</t>
+  </si>
+  <si>
+    <t>Can't monitor system, increased MTTR</t>
+  </si>
+  <si>
+    <t>Errors and delays in observability and alerts</t>
   </si>
 </sst>
 </file>
@@ -519,7 +525,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,8 +592,26 @@
         <bgColor rgb="FF339933"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor rgb="FFCCFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -720,11 +744,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -965,7 +1000,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -996,6 +1030,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1313,11 +1375,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection sqref="A1:P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1340,18 +1403,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="E1" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
+      <c r="E1" s="95" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
       <c r="L1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1367,16 +1430,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="12"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="97"/>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
       <c r="L2" s="9" t="s">
         <v>6</v>
       </c>
@@ -1393,22 +1456,22 @@
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="12"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
       <c r="L3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="92">
+      <c r="M3" s="91">
         <v>43439</v>
       </c>
-      <c r="N3" s="93"/>
-      <c r="O3" s="93"/>
-      <c r="P3" s="93"/>
+      <c r="N3" s="92"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="92"/>
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
@@ -1429,13 +1492,13 @@
       <c r="L4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="92">
+      <c r="M4" s="91">
         <f ca="1">NOW()</f>
-        <v>43445.387481018515</v>
-      </c>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
-      <c r="P4" s="93"/>
+        <v>43780.307161921293</v>
+      </c>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
@@ -1551,33 +1614,33 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="94" t="s">
+    <row r="9" spans="1:16" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="103" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="86">
+        <v>5</v>
+      </c>
+      <c r="E9" s="103" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="F9" s="86">
+        <v>3</v>
+      </c>
+      <c r="G9" s="103" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="58">
-        <v>5</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="F9" s="58">
+      <c r="H9" s="86">
         <v>3</v>
       </c>
-      <c r="G9" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="H9" s="58">
-        <v>3</v>
-      </c>
-      <c r="I9" s="59">
-        <f t="shared" ref="I9:I21" si="0">D9*F9*H9</f>
+      <c r="I9" s="87">
+        <f t="shared" ref="I9:I11" si="0">D9*F9*H9</f>
         <v>45</v>
       </c>
       <c r="J9" s="60"/>
@@ -1591,32 +1654,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="95"/>
-      <c r="B10" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="D10" s="58">
-        <v>4</v>
-      </c>
-      <c r="E10" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="F10" s="58">
+    <row r="10" spans="1:16" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="105"/>
+      <c r="B10" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="65">
+        <v>5</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="65">
         <v>3</v>
       </c>
-      <c r="G10" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="58">
-        <v>4</v>
-      </c>
-      <c r="I10" s="59">
+      <c r="G10" s="103" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="65">
+        <v>3</v>
+      </c>
+      <c r="I10" s="87">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J10" s="60"/>
       <c r="K10" s="60"/>
@@ -1624,103 +1687,98 @@
       <c r="M10" s="62"/>
       <c r="N10" s="62"/>
       <c r="O10" s="62"/>
-      <c r="P10" s="59"/>
-    </row>
-    <row r="11" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="63"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="68">
+      <c r="P10" s="62"/>
+    </row>
+    <row r="11" spans="1:16" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="106"/>
+      <c r="B11" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="103" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="65">
+        <v>4</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="65">
+        <v>3</v>
+      </c>
+      <c r="G11" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="65">
+        <v>4</v>
+      </c>
+      <c r="I11" s="87">
         <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="62"/>
+      <c r="N11" s="62"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="59"/>
+    </row>
+    <row r="12" spans="1:16" ht="13" x14ac:dyDescent="0.15">
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="68">
+        <f t="shared" ref="I12:I24" si="2">D12*F12*H12</f>
         <v>0</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65">
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="94" t="s">
+    <row r="13" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="93" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="58">
+        <v>5</v>
+      </c>
+      <c r="E13" s="56" t="s">
         <v>119</v>
-      </c>
-      <c r="B12" s="56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" s="58">
-        <v>5</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" s="58">
-        <v>1</v>
-      </c>
-      <c r="G12" s="57" t="s">
-        <v>121</v>
-      </c>
-      <c r="H12" s="58">
-        <v>10</v>
-      </c>
-      <c r="I12" s="59">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J12" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="60"/>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="95"/>
-      <c r="B13" s="56" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="58">
-        <v>4</v>
-      </c>
-      <c r="E13" s="56" t="s">
-        <v>61</v>
       </c>
       <c r="F13" s="58">
         <v>1</v>
       </c>
       <c r="G13" s="57" t="s">
-        <v>62</v>
+        <v>117</v>
       </c>
       <c r="H13" s="58">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13" s="59">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>50</v>
       </c>
       <c r="J13" s="60" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="K13" s="60"/>
       <c r="L13" s="60"/>
@@ -1732,34 +1790,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="95"/>
+    <row r="14" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="94"/>
       <c r="B14" s="56" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D14" s="58">
         <v>4</v>
       </c>
       <c r="E14" s="56" t="s">
-        <v>124</v>
+        <v>61</v>
       </c>
       <c r="F14" s="58">
         <v>1</v>
       </c>
-      <c r="G14" s="60" t="s">
-        <v>126</v>
+      <c r="G14" s="57" t="s">
+        <v>62</v>
       </c>
       <c r="H14" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="59">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J14" s="60"/>
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J14" s="60" t="s">
+        <v>123</v>
+      </c>
       <c r="K14" s="60"/>
       <c r="L14" s="60"/>
       <c r="M14" s="61"/>
@@ -1770,31 +1830,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="95"/>
+    <row r="15" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="94"/>
       <c r="B15" s="56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="58">
         <v>4</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="F15" s="58">
         <v>1</v>
       </c>
       <c r="G15" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" s="58">
         <v>2</v>
       </c>
       <c r="I15" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J15" s="60"/>
@@ -1809,9 +1869,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="95"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="56" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C16" s="57" t="s">
         <v>66</v>
@@ -1820,19 +1880,19 @@
         <v>4</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F16" s="58">
         <v>1</v>
       </c>
       <c r="G16" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" s="58">
         <v>2</v>
       </c>
       <c r="I16" s="59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="J16" s="60"/>
@@ -1846,32 +1906,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
+    <row r="17" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="94"/>
       <c r="B17" s="56" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D17" s="58">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="56" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F17" s="58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H17" s="58">
         <v>2</v>
       </c>
       <c r="I17" s="59">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J17" s="60"/>
       <c r="K17" s="60"/>
@@ -1884,32 +1944,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="81"/>
+    <row r="18" spans="1:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
       <c r="B18" s="56" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="D18" s="58">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="56" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F18" s="58">
         <v>2</v>
       </c>
       <c r="G18" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" s="58">
         <v>2</v>
       </c>
       <c r="I18" s="59">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f t="shared" si="2"/>
+        <v>12</v>
       </c>
       <c r="J18" s="60"/>
       <c r="K18" s="60"/>
@@ -1922,36 +1982,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:16" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="81"/>
-      <c r="B19" s="57" t="s">
-        <v>85</v>
+      <c r="B19" s="56" t="s">
+        <v>82</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" s="83">
+        <v>83</v>
+      </c>
+      <c r="D19" s="58">
+        <v>6</v>
+      </c>
+      <c r="E19" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="58">
         <v>2</v>
       </c>
-      <c r="E19" s="57" t="s">
-        <v>84</v>
-      </c>
-      <c r="F19" s="83">
+      <c r="G19" s="60" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="58">
         <v>2</v>
       </c>
-      <c r="G19" s="57" t="s">
-        <v>125</v>
-      </c>
-      <c r="H19" s="83">
-        <v>2</v>
-      </c>
-      <c r="I19" s="84">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
+      <c r="I19" s="59">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
       <c r="M19" s="61"/>
       <c r="N19" s="61"/>
       <c r="O19" s="61"/>
@@ -1960,20 +2020,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="86"/>
+    <row r="20" spans="1:16" ht="57" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="81"/>
       <c r="B20" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="88">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="83">
+        <v>2</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="83">
+        <v>2</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="83">
+        <v>2</v>
+      </c>
+      <c r="I20" s="84">
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
       <c r="J20" s="85"/>
       <c r="K20" s="85"/>
@@ -1986,58 +2058,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="81"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="88">
-        <f t="shared" si="0"/>
+    <row r="21" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="101">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61">
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="100"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="81"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="65"/>
       <c r="E22" s="81"/>
       <c r="F22" s="65"/>
       <c r="G22" s="81"/>
       <c r="H22" s="65"/>
-      <c r="I22" s="59"/>
+      <c r="I22" s="59">
+        <f>D22*F22*H22</f>
+        <v>0</v>
+      </c>
       <c r="J22" s="81"/>
       <c r="K22" s="81"/>
       <c r="L22" s="81"/>
       <c r="M22" s="61"/>
       <c r="N22" s="61"/>
       <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-    </row>
-    <row r="23" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P22" s="61">
+        <f>M22*N22*O22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="81"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="65"/>
       <c r="E23" s="81"/>
       <c r="F23" s="65"/>
       <c r="G23" s="81"/>
       <c r="H23" s="65"/>
-      <c r="I23" s="59"/>
+      <c r="I23" s="87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="J23" s="81"/>
       <c r="K23" s="81"/>
       <c r="L23" s="81"/>
@@ -2055,8 +2136,8 @@
       <c r="F24" s="65"/>
       <c r="G24" s="81"/>
       <c r="H24" s="65"/>
-      <c r="I24" s="59">
-        <f>D24*F24*H24</f>
+      <c r="I24" s="87">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J24" s="81"/>
@@ -2065,12 +2146,9 @@
       <c r="M24" s="61"/>
       <c r="N24" s="61"/>
       <c r="O24" s="61"/>
-      <c r="P24" s="61">
-        <f>M24*N24*O24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P24" s="61"/>
+    </row>
+    <row r="25" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="81"/>
       <c r="B25" s="81"/>
       <c r="C25" s="81"/>
@@ -2079,16 +2157,22 @@
       <c r="F25" s="65"/>
       <c r="G25" s="81"/>
       <c r="H25" s="65"/>
-      <c r="I25" s="59"/>
+      <c r="I25" s="59">
+        <f t="shared" ref="I25:I27" si="3">D25*F25*H25</f>
+        <v>0</v>
+      </c>
       <c r="J25" s="81"/>
       <c r="K25" s="81"/>
       <c r="L25" s="81"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
       <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P25" s="61">
+        <f t="shared" ref="P25:P27" si="4">M25*N25*O25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="81"/>
       <c r="B26" s="81"/>
       <c r="C26" s="81"/>
@@ -2097,16 +2181,22 @@
       <c r="F26" s="65"/>
       <c r="G26" s="81"/>
       <c r="H26" s="65"/>
-      <c r="I26" s="59"/>
+      <c r="I26" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="J26" s="81"/>
       <c r="K26" s="81"/>
       <c r="L26" s="81"/>
       <c r="M26" s="61"/>
       <c r="N26" s="61"/>
       <c r="O26" s="61"/>
-      <c r="P26" s="61"/>
-    </row>
-    <row r="27" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P26" s="61">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" s="81"/>
       <c r="B27" s="81"/>
       <c r="C27" s="81"/>
@@ -2116,7 +2206,7 @@
       <c r="G27" s="81"/>
       <c r="H27" s="65"/>
       <c r="I27" s="59">
-        <f t="shared" ref="I27:I29" si="2">D27*F27*H27</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J27" s="81"/>
@@ -2126,85 +2216,38 @@
       <c r="N27" s="61"/>
       <c r="O27" s="61"/>
       <c r="P27" s="61">
-        <f t="shared" ref="P27:P29" si="3">M27*N27*O27</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="81"/>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="61"/>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="65"/>
-      <c r="I29" s="59">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="61"/>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61"/>
-      <c r="P29" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="89"/>
-      <c r="I30" s="89"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="90"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="89"/>
-      <c r="O30" s="89"/>
-      <c r="P30" s="90"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="88"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
+      <c r="P28" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="M4:P4"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="E1:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="61" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -4857,12 +4900,12 @@
     <row r="2" spans="1:31" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="90" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="15"/>
@@ -4896,10 +4939,10 @@
     <row r="3" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>94</v>
       </c>
       <c r="D3" s="19">
         <v>10</v>
@@ -4935,10 +4978,10 @@
     <row r="4" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="25" t="s">
         <v>95</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>96</v>
       </c>
       <c r="D4" s="27">
         <v>9</v>
@@ -4974,10 +5017,10 @@
     <row r="5" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>98</v>
       </c>
       <c r="D5" s="27">
         <v>8</v>
@@ -5016,7 +5059,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D6" s="27">
         <v>7</v>
@@ -5055,7 +5098,7 @@
         <v>41</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D7" s="27">
         <v>6</v>
@@ -5094,7 +5137,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="49">
         <v>5</v>
@@ -5130,10 +5173,10 @@
     <row r="9" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>102</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>103</v>
       </c>
       <c r="D9" s="49">
         <v>4</v>
@@ -5172,7 +5215,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D10" s="53">
         <v>3</v>
@@ -5211,7 +5254,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="53">
         <v>2</v>
@@ -5247,10 +5290,10 @@
     <row r="12" spans="1:31" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>106</v>
-      </c>
-      <c r="C12" s="52" t="s">
-        <v>107</v>
       </c>
       <c r="D12" s="53">
         <v>1</v>
